--- a/OneDrive_2021-09-24/Final Year Project Drive/codes_2022/Static weight window/Static_Expected weights.xlsx
+++ b/OneDrive_2021-09-24/Final Year Project Drive/codes_2022/Static weight window/Static_Expected weights.xlsx
@@ -137,11 +137,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -161,12 +162,6 @@
     <font>
       <b val="true"/>
       <u val="single"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -261,35 +256,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -372,11 +367,11 @@
   </sheetPr>
   <dimension ref="A1:AD7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -836,12 +831,174 @@
       <c r="C6" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="D6" s="0" t="n">
+        <v>27.6403900018413</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>17.6208831891449</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1.36544744911897</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>3.1917298823454</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>5.99954782119064</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>3.65969953881961</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>3.65969953881961</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>6.93548713413905</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>0.851881599974374</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>2.7237602258712</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>5.06360850824223</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>2.25579056939699</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>5.99954782119064</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>0.851881599974374</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>5.99954782119064</v>
+      </c>
+      <c r="S6" s="0" t="n">
+        <v>5.99954782119064</v>
+      </c>
+      <c r="T6" s="0" t="n">
+        <v>2.7237602258712</v>
+      </c>
+      <c r="U6" s="0" t="n">
+        <v>5.06360850824223</v>
+      </c>
+      <c r="V6" s="0" t="n">
+        <v>4.12766919529382</v>
+      </c>
+      <c r="W6" s="0" t="n">
+        <v>5.53157816471643</v>
+      </c>
+      <c r="X6" s="0" t="n">
+        <v>4.12766919529382</v>
+      </c>
+      <c r="Y6" s="0" t="n">
+        <v>6.93548713413905</v>
+      </c>
+      <c r="Z6" s="0" t="n">
+        <v>0.851881599974374</v>
+      </c>
+      <c r="AA6" s="0" t="n">
+        <v>3.65969953881961</v>
+      </c>
+      <c r="AB6" s="0" t="n">
+        <v>4.59563885176802</v>
+      </c>
+      <c r="AC6" s="0" t="n">
+        <v>4.12766919529382</v>
+      </c>
+      <c r="AD6" s="0" t="n">
+        <v>5.06360850824223</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="8" t="s">
         <v>33</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>27.1015559529981</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>10.985730981883</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>2.14110066883928</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>4.95927009404431</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>4.95927009404431</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>1.71152922088714</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>4.03134413028512</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>4.95927009404431</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>1.24756623900754</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>2.63945518464633</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>4.03134413028512</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>1.24756623900754</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>4.03134413028512</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>1.24756623900754</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <v>6.8151220215627</v>
+      </c>
+      <c r="S7" s="0" t="n">
+        <v>2.63945518464633</v>
+      </c>
+      <c r="T7" s="0" t="n">
+        <v>2.63945518464633</v>
+      </c>
+      <c r="U7" s="0" t="n">
+        <v>6.3511590396831</v>
+      </c>
+      <c r="V7" s="0" t="n">
+        <v>4.49530711216471</v>
+      </c>
+      <c r="W7" s="0" t="n">
+        <v>7.27908500344229</v>
+      </c>
+      <c r="X7" s="0" t="n">
+        <v>2.63945518464633</v>
+      </c>
+      <c r="Y7" s="0" t="n">
+        <v>4.95927009404431</v>
+      </c>
+      <c r="Z7" s="0" t="n">
+        <v>6.3511590396831</v>
+      </c>
+      <c r="AA7" s="0" t="n">
+        <v>6.3511590396831</v>
+      </c>
+      <c r="AB7" s="0" t="n">
+        <v>7.27908500344229</v>
+      </c>
+      <c r="AC7" s="0" t="n">
+        <v>2.17549220276673</v>
+      </c>
+      <c r="AD7" s="0" t="n">
+        <v>4.95927009404431</v>
       </c>
     </row>
   </sheetData>
